--- a/script_master_data/DED-EVsCaching_Adopcion IA_v1a.xlsx
+++ b/script_master_data/DED-EVsCaching_Adopcion IA_v1a.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2607" documentId="13_ncr:1_{CC2F7265-7341-4AB8-8837-BA192D3EEE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B288379-8A15-40B5-808F-3037ECE28310}"/>
+  <xr:revisionPtr revIDLastSave="2608" documentId="13_ncr:1_{CC2F7265-7341-4AB8-8837-BA192D3EEE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED0FDB32-1B15-44FB-9F0F-54EE2104D976}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6440" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -695,7 +693,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3131,7 +3129,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3221,7 +3219,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3329,7 +3327,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3405,7 +3403,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3421,7 +3419,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BB48</c:f>
+              <c:f>Reporte!$BB$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3442,7 +3440,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -3474,7 +3472,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BB49:BB56</c:f>
+              <c:f>Reporte!$BB$49:$BB$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3516,7 +3514,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BC48</c:f>
+              <c:f>Reporte!$BC$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3537,7 +3535,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -3569,7 +3567,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BC49:BC56</c:f>
+              <c:f>Reporte!$BC$49:$BC$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3611,7 +3609,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BD48</c:f>
+              <c:f>Reporte!$BD$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3632,7 +3630,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -3664,7 +3662,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BD49:BD56</c:f>
+              <c:f>Reporte!$BD$49:$BD$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3706,7 +3704,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BE48</c:f>
+              <c:f>Reporte!$BE$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3727,7 +3725,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -3759,7 +3757,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BE49:BE56</c:f>
+              <c:f>Reporte!$BE$49:$BE$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3817,7 +3815,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BA48</c:f>
+              <c:f>Reporte!$BA$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3866,7 +3864,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3898,7 +3896,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -3930,7 +3928,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BA49:BA56</c:f>
+              <c:f>Reporte!$BA$49:$BA$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3973,7 +3971,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BF48</c:f>
+              <c:f>Reporte!$BF$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4022,7 +4020,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4054,7 +4052,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -4086,7 +4084,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BF49:BF56</c:f>
+              <c:f>Reporte!$BF$49:$BF$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4178,7 +4176,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -4237,7 +4235,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -4279,7 +4277,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -4339,7 +4337,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4369,7 +4367,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4445,7 +4443,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4461,7 +4459,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BJ48</c:f>
+              <c:f>Reporte!$BJ$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4482,7 +4480,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -4514,7 +4512,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BJ49:BJ56</c:f>
+              <c:f>Reporte!$BJ$49:$BJ$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4556,7 +4554,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BK48</c:f>
+              <c:f>Reporte!$BK$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4577,7 +4575,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -4609,7 +4607,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BK49:BK56</c:f>
+              <c:f>Reporte!$BK$49:$BK$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4651,7 +4649,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BL48</c:f>
+              <c:f>Reporte!$BL$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4672,7 +4670,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -4704,7 +4702,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BL49:BL56</c:f>
+              <c:f>Reporte!$BL$49:$BL$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4746,7 +4744,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BM48</c:f>
+              <c:f>Reporte!$BM$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4767,7 +4765,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -4799,7 +4797,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BM49:BM56</c:f>
+              <c:f>Reporte!$BM$49:$BM$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4857,7 +4855,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BI48</c:f>
+              <c:f>Reporte!$BI$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4906,7 +4904,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4938,7 +4936,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -4970,7 +4968,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BI49:BI56</c:f>
+              <c:f>Reporte!$BI$49:$BI$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5013,7 +5011,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BN48</c:f>
+              <c:f>Reporte!$BN$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5062,7 +5060,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5094,7 +5092,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -5126,7 +5124,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BN49:BN56</c:f>
+              <c:f>Reporte!$BN$49:$BN$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5218,7 +5216,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -5277,7 +5275,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -5319,7 +5317,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -5379,7 +5377,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5409,7 +5407,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5485,7 +5483,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5669,7 +5667,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5809,7 +5807,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5839,7 +5837,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5915,7 +5913,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6186,7 +6184,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6336,7 +6334,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776388104"/>
@@ -6418,7 +6416,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6450,7 +6448,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776385544"/>
@@ -6515,7 +6513,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6547,7 +6545,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="114118151"/>
@@ -6607,7 +6605,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6637,7 +6635,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6713,7 +6711,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6729,7 +6727,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!V48</c:f>
+              <c:f>Reporte!$V$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6750,7 +6748,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -6782,7 +6780,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!V49:V56</c:f>
+              <c:f>Reporte!$V$49:$V$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6824,7 +6822,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!W48</c:f>
+              <c:f>Reporte!$W$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6845,7 +6843,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -6877,7 +6875,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!W49:W56</c:f>
+              <c:f>Reporte!$W$49:$W$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6919,7 +6917,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!X48</c:f>
+              <c:f>Reporte!$X$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6940,7 +6938,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -6972,7 +6970,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!X49:X56</c:f>
+              <c:f>Reporte!$X$49:$X$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7014,7 +7012,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!Y48</c:f>
+              <c:f>Reporte!$Y$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7035,7 +7033,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7067,7 +7065,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!Y49:Y56</c:f>
+              <c:f>Reporte!$Y$49:$Y$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7125,7 +7123,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!U48</c:f>
+              <c:f>Reporte!$U$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7174,7 +7172,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7206,7 +7204,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7238,7 +7236,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!U49:U56</c:f>
+              <c:f>Reporte!$U$49:$U$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7281,7 +7279,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!Z48</c:f>
+              <c:f>Reporte!$Z$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7330,7 +7328,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7362,7 +7360,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7394,7 +7392,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!Z49:Z56</c:f>
+              <c:f>Reporte!$Z$49:$Z$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7486,7 +7484,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -7545,7 +7543,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -7587,7 +7585,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -7647,7 +7645,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7677,7 +7675,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7753,7 +7751,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7769,7 +7767,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!N48</c:f>
+              <c:f>Reporte!$N$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7790,7 +7788,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7822,7 +7820,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!N49:N56</c:f>
+              <c:f>Reporte!$N$49:$N$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7864,7 +7862,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!O48</c:f>
+              <c:f>Reporte!$O$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7885,7 +7883,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7917,7 +7915,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!O49:O56</c:f>
+              <c:f>Reporte!$O$49:$O$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7959,7 +7957,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!P48</c:f>
+              <c:f>Reporte!$P$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7980,7 +7978,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -8012,7 +8010,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!P49:P56</c:f>
+              <c:f>Reporte!$P$49:$P$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8054,7 +8052,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!Q48</c:f>
+              <c:f>Reporte!$Q$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8075,7 +8073,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -8107,7 +8105,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!Q49:Q56</c:f>
+              <c:f>Reporte!$Q$49:$Q$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8165,7 +8163,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!M48</c:f>
+              <c:f>Reporte!$M$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8214,7 +8212,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8246,7 +8244,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -8278,7 +8276,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!M49:M56</c:f>
+              <c:f>Reporte!$M$49:$M$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8321,7 +8319,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!R48</c:f>
+              <c:f>Reporte!$R$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8370,7 +8368,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8402,7 +8400,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -8434,7 +8432,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!R49:R56</c:f>
+              <c:f>Reporte!$R$49:$R$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8526,7 +8524,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -8585,7 +8583,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -8627,7 +8625,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -8687,7 +8685,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8717,7 +8715,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8793,7 +8791,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9140,7 +9138,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9410,7 +9408,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -9469,7 +9467,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -9511,7 +9509,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -9571,7 +9569,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9601,7 +9599,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9677,7 +9675,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9693,7 +9691,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AD48</c:f>
+              <c:f>Reporte!$AD$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9714,7 +9712,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -9746,7 +9744,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AD49:AD56</c:f>
+              <c:f>Reporte!$AD$49:$AD$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9788,7 +9786,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AE48</c:f>
+              <c:f>Reporte!$AE$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9809,7 +9807,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -9841,7 +9839,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AE49:AE56</c:f>
+              <c:f>Reporte!$AE$49:$AE$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9883,7 +9881,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AF48</c:f>
+              <c:f>Reporte!$AF$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9904,7 +9902,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -9936,7 +9934,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AF49:AF56</c:f>
+              <c:f>Reporte!$AF$49:$AF$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9978,7 +9976,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AG48</c:f>
+              <c:f>Reporte!$AG$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9999,7 +9997,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -10031,7 +10029,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AG49:AG56</c:f>
+              <c:f>Reporte!$AG$49:$AG$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10089,7 +10087,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AC48</c:f>
+              <c:f>Reporte!$AC$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10138,7 +10136,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10170,7 +10168,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -10202,7 +10200,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AC49:AC56</c:f>
+              <c:f>Reporte!$AC$49:$AC$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10245,7 +10243,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AH48</c:f>
+              <c:f>Reporte!$AH$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10294,7 +10292,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10326,7 +10324,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -10358,7 +10356,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AH49:AH56</c:f>
+              <c:f>Reporte!$AH$49:$AH$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10450,7 +10448,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -10509,7 +10507,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -10551,7 +10549,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -10611,7 +10609,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10641,7 +10639,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10717,7 +10715,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10733,7 +10731,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AL48</c:f>
+              <c:f>Reporte!$AL$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10754,7 +10752,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -10786,7 +10784,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AL49:AL56</c:f>
+              <c:f>Reporte!$AL$49:$AL$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10828,7 +10826,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AM48</c:f>
+              <c:f>Reporte!$AM$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10849,7 +10847,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -10881,7 +10879,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AM49:AM56</c:f>
+              <c:f>Reporte!$AM$49:$AM$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10923,7 +10921,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AN48</c:f>
+              <c:f>Reporte!$AN$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10944,7 +10942,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -10976,7 +10974,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AN49:AN56</c:f>
+              <c:f>Reporte!$AN$49:$AN$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11018,7 +11016,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AO48</c:f>
+              <c:f>Reporte!$AO$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11039,7 +11037,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -11071,7 +11069,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AO49:AO56</c:f>
+              <c:f>Reporte!$AO$49:$AO$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11129,7 +11127,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AK48</c:f>
+              <c:f>Reporte!$AK$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11178,7 +11176,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11210,7 +11208,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -11242,7 +11240,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AK49:AK56</c:f>
+              <c:f>Reporte!$AK$49:$AK$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11285,7 +11283,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AP48</c:f>
+              <c:f>Reporte!$AP$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11334,7 +11332,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11366,7 +11364,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -11398,7 +11396,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AP49:AP56</c:f>
+              <c:f>Reporte!$AP$49:$AP$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11490,7 +11488,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -11549,7 +11547,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -11591,7 +11589,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -11651,7 +11649,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11681,7 +11679,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11757,7 +11755,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11773,7 +11771,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AT48</c:f>
+              <c:f>Reporte!$AT$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11794,7 +11792,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -11826,7 +11824,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AT49:AT56</c:f>
+              <c:f>Reporte!$AT$49:$AT$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11868,7 +11866,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AU48</c:f>
+              <c:f>Reporte!$AU$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11889,7 +11887,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -11921,7 +11919,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AU49:AU56</c:f>
+              <c:f>Reporte!$AU$49:$AU$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11963,7 +11961,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AV48</c:f>
+              <c:f>Reporte!$AV$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11984,7 +11982,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -12016,7 +12014,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AV49:AV56</c:f>
+              <c:f>Reporte!$AV$49:$AV$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12058,7 +12056,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AW48</c:f>
+              <c:f>Reporte!$AW$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12079,7 +12077,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -12111,7 +12109,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AW49:AW56</c:f>
+              <c:f>Reporte!$AW$49:$AW$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12169,7 +12167,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AS48</c:f>
+              <c:f>Reporte!$AS$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12218,7 +12216,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12250,7 +12248,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -12282,7 +12280,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AS49:AS56</c:f>
+              <c:f>Reporte!$AS$49:$AS$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12325,7 +12323,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AX48</c:f>
+              <c:f>Reporte!$AX$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12374,7 +12372,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12406,7 +12404,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C56</c:f>
+              <c:f>Reporte!$C$49:$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -12438,7 +12436,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AX49:AX56</c:f>
+              <c:f>Reporte!$AX$49:$AX$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12530,7 +12528,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -12589,7 +12587,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -12631,7 +12629,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -12691,7 +12689,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12721,7 +12719,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19462,39 +19460,39 @@
   <dimension ref="B2:AR106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AP38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="B6" sqref="B6:AP47"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="41" width="9.140625" style="1"/>
-    <col min="42" max="42" width="94.42578125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="29.140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="73.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="1" customWidth="1"/>
+    <col min="7" max="11" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12" max="41" width="9.1796875" style="1"/>
+    <col min="42" max="42" width="94.453125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="29.1796875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" ht="18.75">
+    <row r="2" spans="2:44" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:44" ht="15">
+    <row r="3" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.75">
+    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
         <v>2</v>
@@ -19545,7 +19543,7 @@
       <c r="AN4" s="5"/>
       <c r="AO4" s="6"/>
     </row>
-    <row r="5" spans="2:44" ht="40.5">
+    <row r="5" spans="2:44" ht="39" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -19676,7 +19674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:44">
+    <row r="6" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="121" t="s">
         <v>22</v>
       </c>
@@ -19773,7 +19771,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="2:44" ht="115.5" customHeight="1">
+    <row r="7" spans="2:44" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="125" t="s">
         <v>22</v>
       </c>
@@ -19870,7 +19868,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="8" spans="2:44">
+    <row r="8" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="125" t="s">
         <v>22</v>
       </c>
@@ -19953,7 +19951,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="9" spans="2:44">
+    <row r="9" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="125" t="s">
         <v>22</v>
       </c>
@@ -20036,7 +20034,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="10" spans="2:44">
+    <row r="10" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="125" t="s">
         <v>22</v>
       </c>
@@ -20135,7 +20133,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="11" spans="2:44" ht="13.5">
+    <row r="11" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="125" t="s">
         <v>22</v>
       </c>
@@ -20226,7 +20224,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="12" spans="2:44" ht="13.5">
+    <row r="12" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="125" t="s">
         <v>22</v>
       </c>
@@ -20307,7 +20305,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="13" spans="2:44" ht="13.5">
+    <row r="13" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="125" t="s">
         <v>22</v>
       </c>
@@ -20396,7 +20394,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="14" spans="2:44" ht="13.5">
+    <row r="14" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="125" t="s">
         <v>22</v>
       </c>
@@ -20479,7 +20477,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="15" spans="2:44">
+    <row r="15" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="125" t="s">
         <v>22</v>
       </c>
@@ -20570,7 +20568,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="16" spans="2:44">
+    <row r="16" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="125" t="s">
         <v>22</v>
       </c>
@@ -20653,7 +20651,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="17" spans="2:44">
+    <row r="17" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="125" t="s">
         <v>22</v>
       </c>
@@ -20746,7 +20744,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="18" spans="2:44">
+    <row r="18" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="125" t="s">
         <v>22</v>
       </c>
@@ -20829,7 +20827,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="19" spans="2:44">
+    <row r="19" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="125" t="s">
         <v>22</v>
       </c>
@@ -20912,7 +20910,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="20" spans="2:44" ht="13.5">
+    <row r="20" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="125" t="s">
         <v>22</v>
       </c>
@@ -21001,7 +20999,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="21" spans="2:44" ht="13.5">
+    <row r="21" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="125" t="s">
         <v>22</v>
       </c>
@@ -21118,7 +21116,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="22" spans="2:44" ht="13.5">
+    <row r="22" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="125" t="s">
         <v>22</v>
       </c>
@@ -21205,7 +21203,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="23" spans="2:44">
+    <row r="23" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="125" t="s">
         <v>22</v>
       </c>
@@ -21284,7 +21282,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="24" spans="2:44" ht="13.5">
+    <row r="24" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="125" t="s">
         <v>22</v>
       </c>
@@ -21375,7 +21373,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="25" spans="2:44">
+    <row r="25" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="125" t="s">
         <v>22</v>
       </c>
@@ -21468,7 +21466,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="26" spans="2:44">
+    <row r="26" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" s="125" t="s">
         <v>22</v>
       </c>
@@ -21555,7 +21553,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="27" spans="2:44">
+    <row r="27" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="129" t="s">
         <v>22</v>
       </c>
@@ -21642,7 +21640,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="28" spans="2:44">
+    <row r="28" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="129" t="s">
         <v>22</v>
       </c>
@@ -21729,7 +21727,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="29" spans="2:44">
+    <row r="29" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="129" t="s">
         <v>22</v>
       </c>
@@ -21810,7 +21808,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="30" spans="2:44">
+    <row r="30" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B30" s="129" t="s">
         <v>22</v>
       </c>
@@ -21889,7 +21887,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="31" spans="2:44">
+    <row r="31" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B31" s="129" t="s">
         <v>22</v>
       </c>
@@ -21966,7 +21964,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="32" spans="2:44">
+    <row r="32" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="129" t="s">
         <v>22</v>
       </c>
@@ -22043,7 +22041,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="33" spans="2:44">
+    <row r="33" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B33" s="129" t="s">
         <v>22</v>
       </c>
@@ -22130,7 +22128,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="34" spans="2:44">
+    <row r="34" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B34" s="129" t="s">
         <v>22</v>
       </c>
@@ -22211,7 +22209,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="35" spans="2:44">
+    <row r="35" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B35" s="129" t="s">
         <v>22</v>
       </c>
@@ -22304,7 +22302,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="36" spans="2:44">
+    <row r="36" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="129" t="s">
         <v>22</v>
       </c>
@@ -22387,7 +22385,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="37" spans="2:44">
+    <row r="37" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="129" t="s">
         <v>22</v>
       </c>
@@ -22458,7 +22456,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="38" spans="2:44">
+    <row r="38" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B38" s="129" t="s">
         <v>22</v>
       </c>
@@ -22535,7 +22533,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="39" spans="2:44">
+    <row r="39" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B39" s="129" t="s">
         <v>22</v>
       </c>
@@ -22620,7 +22618,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="40" spans="2:44">
+    <row r="40" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B40" s="129" t="s">
         <v>22</v>
       </c>
@@ -22689,7 +22687,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="41" spans="2:44">
+    <row r="41" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B41" s="129" t="s">
         <v>22</v>
       </c>
@@ -22760,7 +22758,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="42" spans="2:44">
+    <row r="42" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B42" s="129" t="s">
         <v>22</v>
       </c>
@@ -22861,7 +22859,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="43" spans="2:44">
+    <row r="43" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B43" s="129" t="s">
         <v>22</v>
       </c>
@@ -22932,7 +22930,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="44" spans="2:44">
+    <row r="44" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B44" s="129" t="s">
         <v>22</v>
       </c>
@@ -23003,7 +23001,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="45" spans="2:44">
+    <row r="45" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" s="129" t="s">
         <v>22</v>
       </c>
@@ -23074,7 +23072,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="46" spans="2:44">
+    <row r="46" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B46" s="129" t="s">
         <v>22</v>
       </c>
@@ -23143,7 +23141,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="47" spans="2:44">
+    <row r="47" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B47" s="129" t="s">
         <v>22</v>
       </c>
@@ -23212,7 +23210,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="48" spans="2:44">
+    <row r="48" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="26"/>
       <c r="C48" s="38"/>
       <c r="D48" s="10"/>
@@ -23267,7 +23265,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="49" spans="2:44">
+    <row r="49" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B49" s="26"/>
       <c r="C49" s="38"/>
       <c r="D49" s="10"/>
@@ -23322,7 +23320,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="50" spans="2:44">
+    <row r="50" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B50" s="26"/>
       <c r="C50" s="38"/>
       <c r="D50" s="10"/>
@@ -23377,7 +23375,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="51" spans="2:44">
+    <row r="51" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B51" s="26"/>
       <c r="C51" s="38"/>
       <c r="D51" s="10"/>
@@ -23432,7 +23430,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="52" spans="2:44">
+    <row r="52" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="26"/>
       <c r="C52" s="38"/>
       <c r="D52" s="10"/>
@@ -23487,7 +23485,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="53" spans="2:44">
+    <row r="53" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B53" s="26"/>
       <c r="C53" s="38"/>
       <c r="D53" s="10"/>
@@ -23542,7 +23540,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="54" spans="2:44">
+    <row r="54" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B54" s="26"/>
       <c r="C54" s="38"/>
       <c r="D54" s="10"/>
@@ -23597,7 +23595,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="55" spans="2:44">
+    <row r="55" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B55" s="26"/>
       <c r="C55" s="38"/>
       <c r="D55" s="10"/>
@@ -23652,7 +23650,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="56" spans="2:44">
+    <row r="56" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B56" s="26"/>
       <c r="C56" s="38"/>
       <c r="D56" s="10"/>
@@ -23707,7 +23705,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="57" spans="2:44">
+    <row r="57" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B57" s="26"/>
       <c r="C57" s="38"/>
       <c r="D57" s="10"/>
@@ -23762,7 +23760,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="58" spans="2:44">
+    <row r="58" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B58" s="26"/>
       <c r="C58" s="38"/>
       <c r="D58" s="10"/>
@@ -23817,7 +23815,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="59" spans="2:44">
+    <row r="59" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B59" s="26"/>
       <c r="C59" s="38"/>
       <c r="D59" s="10"/>
@@ -23872,7 +23870,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="60" spans="2:44">
+    <row r="60" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B60" s="26"/>
       <c r="C60" s="38"/>
       <c r="D60" s="10"/>
@@ -23927,7 +23925,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="61" spans="2:44">
+    <row r="61" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B61" s="26"/>
       <c r="C61" s="38"/>
       <c r="D61" s="10"/>
@@ -23982,7 +23980,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="62" spans="2:44">
+    <row r="62" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B62" s="26"/>
       <c r="C62" s="38"/>
       <c r="D62" s="10"/>
@@ -24037,7 +24035,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="63" spans="2:44">
+    <row r="63" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B63" s="26"/>
       <c r="C63" s="38"/>
       <c r="D63" s="10"/>
@@ -24092,7 +24090,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="64" spans="2:44">
+    <row r="64" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B64" s="26"/>
       <c r="C64" s="38"/>
       <c r="D64" s="10"/>
@@ -24149,7 +24147,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="65" spans="2:44">
+    <row r="65" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B65" s="26"/>
       <c r="C65" s="38"/>
       <c r="D65" s="10"/>
@@ -24204,7 +24202,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="66" spans="2:44">
+    <row r="66" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B66" s="26"/>
       <c r="C66" s="38"/>
       <c r="D66" s="10"/>
@@ -24251,15 +24249,15 @@
       <c r="AO66" s="117"/>
       <c r="AP66" s="28"/>
       <c r="AQ66" s="30" t="str">
-        <f>IF(OR(G66="S",L66="S",Q66="S",V66="S",AA66="S",AF66="S",AK66="S"),"S","N")</f>
+        <f t="shared" ref="AQ66:AR68" si="10">IF(OR(G66="S",L66="S",Q66="S",V66="S",AA66="S",AF66="S",AK66="S"),"S","N")</f>
         <v>N</v>
       </c>
       <c r="AR66" s="30" t="str">
-        <f>IF(OR(H66="S",M66="S",R66="S",W66="S",AB66="S",AG66="S",AL66="S"),"S","N")</f>
+        <f t="shared" si="10"/>
         <v>N</v>
       </c>
     </row>
-    <row r="67" spans="2:44">
+    <row r="67" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B67" s="26"/>
       <c r="C67" s="38"/>
       <c r="D67" s="10"/>
@@ -24306,15 +24304,15 @@
       <c r="AO67" s="117"/>
       <c r="AP67" s="28"/>
       <c r="AQ67" s="30" t="str">
-        <f>IF(OR(G67="S",L67="S",Q67="S",V67="S",AA67="S",AF67="S",AK67="S"),"S","N")</f>
+        <f t="shared" si="10"/>
         <v>N</v>
       </c>
       <c r="AR67" s="30" t="str">
-        <f>IF(OR(H67="S",M67="S",R67="S",W67="S",AB67="S",AG67="S",AL67="S"),"S","N")</f>
+        <f t="shared" si="10"/>
         <v>N</v>
       </c>
     </row>
-    <row r="68" spans="2:44">
+    <row r="68" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B68" s="26"/>
       <c r="C68" s="38"/>
       <c r="D68" s="10"/>
@@ -24361,15 +24359,15 @@
       <c r="AO68" s="117"/>
       <c r="AP68" s="28"/>
       <c r="AQ68" s="30" t="str">
-        <f>IF(OR(G68="S",L68="S",Q68="S",V68="S",AA68="S",AF68="S",AK68="S"),"S","N")</f>
+        <f t="shared" si="10"/>
         <v>N</v>
       </c>
       <c r="AR68" s="30" t="str">
-        <f>IF(OR(H68="S",M68="S",R68="S",W68="S",AB68="S",AG68="S",AL68="S"),"S","N")</f>
+        <f t="shared" si="10"/>
         <v>N</v>
       </c>
     </row>
-    <row r="69" spans="2:44">
+    <row r="69" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="10"/>
@@ -24418,7 +24416,7 @@
       <c r="AQ69" s="26"/>
       <c r="AR69" s="26"/>
     </row>
-    <row r="70" spans="2:44">
+    <row r="70" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="10"/>
@@ -24467,7 +24465,7 @@
       <c r="AQ70" s="26"/>
       <c r="AR70" s="26"/>
     </row>
-    <row r="71" spans="2:44">
+    <row r="71" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="10"/>
@@ -24516,7 +24514,7 @@
       <c r="AQ71" s="26"/>
       <c r="AR71" s="26"/>
     </row>
-    <row r="72" spans="2:44">
+    <row r="72" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="10"/>
@@ -24565,7 +24563,7 @@
       <c r="AQ72" s="26"/>
       <c r="AR72" s="26"/>
     </row>
-    <row r="73" spans="2:44">
+    <row r="73" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="10"/>
@@ -24614,7 +24612,7 @@
       <c r="AQ73" s="26"/>
       <c r="AR73" s="26"/>
     </row>
-    <row r="74" spans="2:44">
+    <row r="74" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="10"/>
@@ -24663,7 +24661,7 @@
       <c r="AQ74" s="26"/>
       <c r="AR74" s="26"/>
     </row>
-    <row r="75" spans="2:44">
+    <row r="75" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="10"/>
@@ -24712,7 +24710,7 @@
       <c r="AQ75" s="26"/>
       <c r="AR75" s="26"/>
     </row>
-    <row r="76" spans="2:44">
+    <row r="76" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="10"/>
@@ -24761,7 +24759,7 @@
       <c r="AQ76" s="26"/>
       <c r="AR76" s="26"/>
     </row>
-    <row r="77" spans="2:44">
+    <row r="77" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="10"/>
@@ -24810,7 +24808,7 @@
       <c r="AQ77" s="26"/>
       <c r="AR77" s="26"/>
     </row>
-    <row r="78" spans="2:44">
+    <row r="78" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="10"/>
@@ -24859,7 +24857,7 @@
       <c r="AQ78" s="26"/>
       <c r="AR78" s="26"/>
     </row>
-    <row r="79" spans="2:44">
+    <row r="79" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="10"/>
@@ -24908,7 +24906,7 @@
       <c r="AQ79" s="26"/>
       <c r="AR79" s="26"/>
     </row>
-    <row r="80" spans="2:44">
+    <row r="80" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="10"/>
@@ -24953,7 +24951,7 @@
       <c r="AQ80" s="26"/>
       <c r="AR80" s="26"/>
     </row>
-    <row r="81" spans="2:44">
+    <row r="81" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="10"/>
@@ -24998,7 +24996,7 @@
       <c r="AQ81" s="26"/>
       <c r="AR81" s="26"/>
     </row>
-    <row r="82" spans="2:44">
+    <row r="82" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="10"/>
@@ -25043,7 +25041,7 @@
       <c r="AQ82" s="26"/>
       <c r="AR82" s="26"/>
     </row>
-    <row r="83" spans="2:44">
+    <row r="83" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="10"/>
@@ -25088,7 +25086,7 @@
       <c r="AQ83" s="26"/>
       <c r="AR83" s="26"/>
     </row>
-    <row r="84" spans="2:44">
+    <row r="84" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="10"/>
@@ -25133,7 +25131,7 @@
       <c r="AQ84" s="26"/>
       <c r="AR84" s="26"/>
     </row>
-    <row r="85" spans="2:44">
+    <row r="85" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="10"/>
@@ -25178,7 +25176,7 @@
       <c r="AQ85" s="26"/>
       <c r="AR85" s="26"/>
     </row>
-    <row r="86" spans="2:44">
+    <row r="86" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="10"/>
@@ -25223,7 +25221,7 @@
       <c r="AQ86" s="26"/>
       <c r="AR86" s="26"/>
     </row>
-    <row r="87" spans="2:44">
+    <row r="87" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="10"/>
@@ -25268,7 +25266,7 @@
       <c r="AQ87" s="26"/>
       <c r="AR87" s="26"/>
     </row>
-    <row r="88" spans="2:44">
+    <row r="88" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="10"/>
@@ -25313,7 +25311,7 @@
       <c r="AQ88" s="26"/>
       <c r="AR88" s="26"/>
     </row>
-    <row r="89" spans="2:44">
+    <row r="89" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="10"/>
@@ -25358,7 +25356,7 @@
       <c r="AQ89" s="26"/>
       <c r="AR89" s="26"/>
     </row>
-    <row r="90" spans="2:44">
+    <row r="90" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="10"/>
@@ -25403,7 +25401,7 @@
       <c r="AQ90" s="26"/>
       <c r="AR90" s="26"/>
     </row>
-    <row r="91" spans="2:44">
+    <row r="91" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="10"/>
@@ -25448,7 +25446,7 @@
       <c r="AQ91" s="26"/>
       <c r="AR91" s="26"/>
     </row>
-    <row r="92" spans="2:44">
+    <row r="92" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="10"/>
@@ -25493,7 +25491,7 @@
       <c r="AQ92" s="26"/>
       <c r="AR92" s="26"/>
     </row>
-    <row r="93" spans="2:44">
+    <row r="93" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="10"/>
@@ -25538,7 +25536,7 @@
       <c r="AQ93" s="26"/>
       <c r="AR93" s="26"/>
     </row>
-    <row r="94" spans="2:44">
+    <row r="94" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="10"/>
@@ -25583,7 +25581,7 @@
       <c r="AQ94" s="26"/>
       <c r="AR94" s="26"/>
     </row>
-    <row r="95" spans="2:44">
+    <row r="95" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="10"/>
@@ -25628,7 +25626,7 @@
       <c r="AQ95" s="26"/>
       <c r="AR95" s="26"/>
     </row>
-    <row r="96" spans="2:44">
+    <row r="96" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="10"/>
@@ -25673,7 +25671,7 @@
       <c r="AQ96" s="26"/>
       <c r="AR96" s="26"/>
     </row>
-    <row r="97" spans="2:44">
+    <row r="97" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="10"/>
@@ -25718,7 +25716,7 @@
       <c r="AQ97" s="26"/>
       <c r="AR97" s="26"/>
     </row>
-    <row r="98" spans="2:44">
+    <row r="98" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="10"/>
@@ -25763,7 +25761,7 @@
       <c r="AQ98" s="26"/>
       <c r="AR98" s="26"/>
     </row>
-    <row r="99" spans="2:44">
+    <row r="99" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="10"/>
@@ -25808,7 +25806,7 @@
       <c r="AQ99" s="26"/>
       <c r="AR99" s="26"/>
     </row>
-    <row r="100" spans="2:44">
+    <row r="100" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="10"/>
@@ -25853,7 +25851,7 @@
       <c r="AQ100" s="26"/>
       <c r="AR100" s="26"/>
     </row>
-    <row r="101" spans="2:44">
+    <row r="101" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="10"/>
@@ -25898,7 +25896,7 @@
       <c r="AQ101" s="26"/>
       <c r="AR101" s="26"/>
     </row>
-    <row r="102" spans="2:44">
+    <row r="102" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="10"/>
@@ -25943,7 +25941,7 @@
       <c r="AQ102" s="26"/>
       <c r="AR102" s="26"/>
     </row>
-    <row r="103" spans="2:44">
+    <row r="103" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="10"/>
@@ -25988,7 +25986,7 @@
       <c r="AQ103" s="26"/>
       <c r="AR103" s="26"/>
     </row>
-    <row r="104" spans="2:44">
+    <row r="104" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="10"/>
@@ -26033,7 +26031,7 @@
       <c r="AQ104" s="26"/>
       <c r="AR104" s="26"/>
     </row>
-    <row r="105" spans="2:44">
+    <row r="105" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="10"/>
@@ -26078,7 +26076,7 @@
       <c r="AQ105" s="26"/>
       <c r="AR105" s="26"/>
     </row>
-    <row r="106" spans="2:44">
+    <row r="106" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="10"/>
@@ -26703,77 +26701,77 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="102" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="102" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>10</v>
       </c>
@@ -26785,31 +26783,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409AF7FE-97E2-49A2-85B3-28ECC4D7AD22}">
-  <dimension ref="C3:L20"/>
+  <dimension ref="C3:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="12" width="37.28515625" customWidth="1"/>
+    <col min="3" max="12" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E3" s="136" t="s">
         <v>142</v>
       </c>
       <c r="F3" s="136"/>
       <c r="G3" s="136"/>
     </row>
-    <row r="5" spans="3:12" ht="18.75">
+    <row r="5" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="J5" s="137" t="s">
         <v>143</v>
       </c>
       <c r="K5" s="138"/>
     </row>
-    <row r="6" spans="3:12" ht="18.75">
+    <row r="6" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C6" s="34" t="s">
         <v>144</v>
       </c>
@@ -26841,7 +26839,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="15">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C7" s="139" t="s">
         <v>154</v>
       </c>
@@ -26855,7 +26853,7 @@
       <c r="K7" s="84"/>
       <c r="L7" s="85"/>
     </row>
-    <row r="8" spans="3:12" ht="15">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C8" s="140"/>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
@@ -26867,7 +26865,7 @@
       <c r="K8" s="84"/>
       <c r="L8" s="37"/>
     </row>
-    <row r="9" spans="3:12" ht="15">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C9" s="140"/>
       <c r="D9" s="84"/>
       <c r="E9" s="84"/>
@@ -26879,7 +26877,7 @@
       <c r="K9" s="84"/>
       <c r="L9" s="86"/>
     </row>
-    <row r="10" spans="3:12" ht="15">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C10" s="140"/>
       <c r="D10" s="84"/>
       <c r="E10" s="84"/>
@@ -26891,7 +26889,7 @@
       <c r="K10" s="84"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="3:12" ht="15">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C11" s="140"/>
       <c r="D11" s="84"/>
       <c r="E11" s="84"/>
@@ -26903,7 +26901,7 @@
       <c r="K11" s="84"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="3:12" ht="15">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C12" s="140"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -26915,7 +26913,7 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="3:12" ht="15">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C13" s="140"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -26927,7 +26925,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="3:12" ht="15">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C14" s="140"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -26939,7 +26937,7 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="3:12" ht="15">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C15" s="140"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -26951,7 +26949,7 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="3:12" ht="15">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C16" s="140"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -26963,7 +26961,7 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="3:12" ht="15">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="140"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -26975,7 +26973,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="3:12" ht="15">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="140"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -26987,7 +26985,7 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="3:12" ht="15">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="140"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -26999,7 +26997,6 @@
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
     </row>
-    <row r="20" spans="3:12" ht="15"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E3:G3"/>
@@ -27018,83 +27015,83 @@
       <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5703125" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.85546875" customWidth="1"/>
-    <col min="39" max="39" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.7109375" customWidth="1"/>
-    <col min="42" max="42" width="19.42578125" customWidth="1"/>
-    <col min="43" max="43" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.5703125" customWidth="1"/>
-    <col min="47" max="47" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.7109375" customWidth="1"/>
-    <col min="50" max="50" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.28515625" customWidth="1"/>
-    <col min="55" max="55" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.7109375" customWidth="1"/>
-    <col min="58" max="58" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.140625" customWidth="1"/>
-    <col min="63" max="63" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.7109375" customWidth="1"/>
-    <col min="66" max="66" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="10" width="13.81640625" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" customWidth="1"/>
+    <col min="15" max="15" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7265625" customWidth="1"/>
+    <col min="18" max="18" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.26953125" customWidth="1"/>
+    <col min="23" max="23" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7265625" customWidth="1"/>
+    <col min="26" max="26" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.54296875" customWidth="1"/>
+    <col min="31" max="31" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7265625" customWidth="1"/>
+    <col min="34" max="34" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.81640625" customWidth="1"/>
+    <col min="39" max="39" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.7265625" customWidth="1"/>
+    <col min="42" max="42" width="19.453125" customWidth="1"/>
+    <col min="43" max="43" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.54296875" customWidth="1"/>
+    <col min="47" max="47" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.7265625" customWidth="1"/>
+    <col min="50" max="50" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.26953125" customWidth="1"/>
+    <col min="55" max="55" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.7265625" customWidth="1"/>
+    <col min="58" max="58" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.1796875" customWidth="1"/>
+    <col min="63" max="63" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.7265625" customWidth="1"/>
+    <col min="66" max="66" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10"/>
-    <row r="2" spans="2:10" ht="23.25">
+    <row r="1" spans="2:10" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="70" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="2:10"/>
-    <row r="4" spans="2:10">
+    <row r="3" spans="2:10" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C4" s="22" t="s">
         <v>156</v>
       </c>
@@ -27103,10 +27100,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C7" s="17"/>
       <c r="D7" s="20" t="s">
         <v>20</v>
@@ -27122,7 +27119,7 @@
       </c>
       <c r="H7" s="31"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C8" s="98" t="s">
         <v>160</v>
       </c>
@@ -27143,17 +27140,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="18.75">
+    <row r="10" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C10" s="69" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C11" s="24" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C12" s="20" t="s">
         <v>163</v>
       </c>
@@ -27175,7 +27172,7 @@
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C13" s="18" t="s">
         <v>2</v>
       </c>
@@ -27200,7 +27197,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C14" s="18" t="s">
         <v>3</v>
       </c>
@@ -27225,7 +27222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C15" s="18" t="s">
         <v>4</v>
       </c>
@@ -27250,7 +27247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C16" s="18" t="s">
         <v>167</v>
       </c>
@@ -27275,7 +27272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C17" s="18" t="s">
         <v>168</v>
       </c>
@@ -27300,7 +27297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C18" s="18" t="s">
         <v>169</v>
       </c>
@@ -27325,7 +27322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
+    <row r="19" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C19" s="32" t="s">
         <v>170</v>
       </c>
@@ -27350,7 +27347,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
+    <row r="20" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C20" s="79" t="s">
         <v>171</v>
       </c>
@@ -27377,13 +27374,13 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="3:10"/>
-    <row r="22" spans="3:10" ht="18.75">
+    <row r="21" spans="3:10" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C22" s="69" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="3:10">
+    <row r="23" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C23" s="91" t="s">
         <v>163</v>
       </c>
@@ -27401,7 +27398,7 @@
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
     </row>
-    <row r="24" spans="3:10">
+    <row r="24" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C24" s="94" t="s">
         <v>2</v>
       </c>
@@ -27419,7 +27416,7 @@
       </c>
       <c r="G24" s="99"/>
     </row>
-    <row r="25" spans="3:10">
+    <row r="25" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C25" s="94" t="s">
         <v>3</v>
       </c>
@@ -27437,7 +27434,7 @@
       </c>
       <c r="G25" s="99"/>
     </row>
-    <row r="26" spans="3:10">
+    <row r="26" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C26" s="94" t="s">
         <v>4</v>
       </c>
@@ -27455,7 +27452,7 @@
       </c>
       <c r="G26" s="99"/>
     </row>
-    <row r="27" spans="3:10">
+    <row r="27" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C27" s="94" t="s">
         <v>167</v>
       </c>
@@ -27473,7 +27470,7 @@
       </c>
       <c r="G27" s="99"/>
     </row>
-    <row r="28" spans="3:10">
+    <row r="28" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C28" s="94" t="s">
         <v>168</v>
       </c>
@@ -27491,7 +27488,7 @@
       </c>
       <c r="G28" s="99"/>
     </row>
-    <row r="29" spans="3:10">
+    <row r="29" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C29" s="94" t="s">
         <v>169</v>
       </c>
@@ -27509,7 +27506,7 @@
       </c>
       <c r="G29" s="99"/>
     </row>
-    <row r="30" spans="3:10">
+    <row r="30" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C30" s="96" t="s">
         <v>170</v>
       </c>
@@ -27527,7 +27524,7 @@
       </c>
       <c r="G30" s="99"/>
     </row>
-    <row r="31" spans="3:10">
+    <row r="31" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C31" s="79" t="s">
         <v>176</v>
       </c>
@@ -27548,46 +27545,46 @@
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="3:10"/>
-    <row r="33" spans="2:66"/>
-    <row r="34" spans="2:66"/>
-    <row r="35" spans="2:66" ht="23.25">
+    <row r="32" spans="3:10" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:66" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:66" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="70" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="2:66" ht="23.25">
+    <row r="36" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="70"/>
     </row>
-    <row r="37" spans="2:66" ht="23.25">
+    <row r="37" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="70"/>
     </row>
-    <row r="38" spans="2:66" ht="23.25">
+    <row r="38" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="70"/>
     </row>
-    <row r="39" spans="2:66" ht="23.25">
+    <row r="39" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="70"/>
     </row>
-    <row r="40" spans="2:66" ht="23.25">
+    <row r="40" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="70"/>
     </row>
-    <row r="41" spans="2:66" ht="23.25">
+    <row r="41" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="70"/>
     </row>
-    <row r="42" spans="2:66" ht="23.25">
+    <row r="42" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="70"/>
     </row>
-    <row r="43" spans="2:66" ht="23.25">
+    <row r="43" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="70"/>
     </row>
-    <row r="44" spans="2:66" ht="23.25">
+    <row r="44" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="70"/>
     </row>
-    <row r="45" spans="2:66" ht="23.25">
+    <row r="45" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="70"/>
     </row>
-    <row r="46" spans="2:66"/>
-    <row r="47" spans="2:66" ht="14.45" customHeight="1">
+    <row r="46" spans="2:66" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:66" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D47" s="150" t="s">
         <v>178</v>
       </c>
@@ -27668,7 +27665,7 @@
       <c r="BM47" s="148"/>
       <c r="BN47" s="149"/>
     </row>
-    <row r="48" spans="2:66">
+    <row r="48" spans="2:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C48" s="20" t="s">
         <v>10</v>
       </c>
@@ -27862,7 +27859,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="3:66">
+    <row r="49" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C49" s="18" t="str" cm="1">
         <f t="array" ref="C49:C57">_xlfn.UNIQUE(AdopcionIA!$C$6:$C$503)</f>
         <v>SP9</v>
@@ -27876,7 +27873,7 @@
         <v>42.25</v>
       </c>
       <c r="F49" s="61">
-        <f>IFERROR((D49-E49)/D49,0)</f>
+        <f t="shared" ref="F49:F56" si="4">IFERROR((D49-E49)/D49,0)</f>
         <v>0.25877192982456143</v>
       </c>
       <c r="G49" s="48">
@@ -27904,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="61">
-        <f>IFERROR((K49-L49)/K49,0)</f>
+        <f t="shared" ref="M49:M56" si="5">IFERROR((K49-L49)/K49,0)</f>
         <v>0</v>
       </c>
       <c r="N49" s="21">
@@ -27936,7 +27933,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="62">
-        <f>IFERROR((S49-T49)/S49,0)</f>
+        <f t="shared" ref="U49:U56" si="6">IFERROR((S49-T49)/S49,0)</f>
         <v>0</v>
       </c>
       <c r="V49" s="51">
@@ -28120,7 +28117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:66">
+    <row r="50" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C50" s="18" t="str">
         <v>SP10</v>
       </c>
@@ -28133,7 +28130,7 @@
         <v>6</v>
       </c>
       <c r="F50" s="61">
-        <f>IFERROR((D50-E50)/D50,0)</f>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="G50" s="48">
@@ -28161,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="61">
-        <f>IFERROR((K50-L50)/K50,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N50" s="21">
@@ -28193,7 +28190,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="62">
-        <f>IFERROR((S50-T50)/S50,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V50" s="51">
@@ -28225,7 +28222,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="61">
-        <f t="shared" ref="AC50:AC53" si="4">IFERROR((AA50-AB50)/AA50,0)</f>
+        <f t="shared" ref="AC50:AC53" si="7">IFERROR((AA50-AB50)/AA50,0)</f>
         <v>0</v>
       </c>
       <c r="AD50" s="56">
@@ -28257,7 +28254,7 @@
         <v>4</v>
       </c>
       <c r="AK50" s="61">
-        <f t="shared" ref="AK50:AK53" si="5">IFERROR((AI50-AJ50)/AI50,0)</f>
+        <f t="shared" ref="AK50:AK53" si="8">IFERROR((AI50-AJ50)/AI50,0)</f>
         <v>0.5</v>
       </c>
       <c r="AL50" s="60">
@@ -28289,7 +28286,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="61">
-        <f t="shared" ref="AS50:AS53" si="6">IFERROR((AQ50-AR50)/AQ50,0)</f>
+        <f t="shared" ref="AS50:AS53" si="9">IFERROR((AQ50-AR50)/AQ50,0)</f>
         <v>0</v>
       </c>
       <c r="AT50" s="68">
@@ -28321,7 +28318,7 @@
         <v>2</v>
       </c>
       <c r="BA50" s="61">
-        <f t="shared" ref="BA50:BA53" si="7">IFERROR((AY50-AZ50)/AY50,0)</f>
+        <f t="shared" ref="BA50:BA53" si="10">IFERROR((AY50-AZ50)/AY50,0)</f>
         <v>0</v>
       </c>
       <c r="BB50" s="74">
@@ -28353,7 +28350,7 @@
         <v>0</v>
       </c>
       <c r="BI50" s="61">
-        <f t="shared" ref="BI50:BI53" si="8">IFERROR((BG50-BH50)/BG50,0)</f>
+        <f t="shared" ref="BI50:BI53" si="11">IFERROR((BG50-BH50)/BG50,0)</f>
         <v>0</v>
       </c>
       <c r="BJ50" s="78">
@@ -28377,7 +28374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:66">
+    <row r="51" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C51" s="18" t="str">
         <v>SP11</v>
       </c>
@@ -28390,7 +28387,7 @@
         <v>7.5</v>
       </c>
       <c r="F51" s="61">
-        <f>IFERROR((D51-E51)/D51,0)</f>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="G51" s="48">
@@ -28418,7 +28415,7 @@
         <v>0.5</v>
       </c>
       <c r="M51" s="61">
-        <f>IFERROR((K51-L51)/K51,0)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="N51" s="21">
@@ -28450,7 +28447,7 @@
         <v>1</v>
       </c>
       <c r="U51" s="62">
-        <f>IFERROR((S51-T51)/S51,0)</f>
+        <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="V51" s="51">
@@ -28482,7 +28479,7 @@
         <v>2</v>
       </c>
       <c r="AC51" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AD51" s="56">
@@ -28514,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL51" s="60">
@@ -28546,7 +28543,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AT51" s="68">
@@ -28578,7 +28575,7 @@
         <v>4</v>
       </c>
       <c r="BA51" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
       <c r="BB51" s="74">
@@ -28610,7 +28607,7 @@
         <v>0</v>
       </c>
       <c r="BI51" s="61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BJ51" s="78">
@@ -28634,7 +28631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:66">
+    <row r="52" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C52" s="18" t="str">
         <v>SP12</v>
       </c>
@@ -28647,7 +28644,7 @@
         <v>15</v>
       </c>
       <c r="F52" s="61">
-        <f>IFERROR((D52-E52)/D52,0)</f>
+        <f t="shared" si="4"/>
         <v>-0.875</v>
       </c>
       <c r="G52" s="48">
@@ -28675,7 +28672,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="61">
-        <f>IFERROR((K52-L52)/K52,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N52" s="21">
@@ -28707,7 +28704,7 @@
         <v>2</v>
       </c>
       <c r="U52" s="62">
-        <f>IFERROR((S52-T52)/S52,0)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="V52" s="51">
@@ -28739,7 +28736,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD52" s="56">
@@ -28771,7 +28768,7 @@
         <v>2</v>
       </c>
       <c r="AK52" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="AL52" s="60">
@@ -28803,7 +28800,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AT52" s="68">
@@ -28835,7 +28832,7 @@
         <v>11</v>
       </c>
       <c r="BA52" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BB52" s="74">
@@ -28867,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="BI52" s="61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BJ52" s="78">
@@ -28891,7 +28888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:66">
+    <row r="53" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C53" s="18" t="str">
         <v>SP13</v>
       </c>
@@ -28904,7 +28901,7 @@
         <v>0.25</v>
       </c>
       <c r="F53" s="61">
-        <f>IFERROR((D53-E53)/D53,0)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="G53" s="48">
@@ -28932,7 +28929,7 @@
         <v>0.25</v>
       </c>
       <c r="M53" s="64">
-        <f>IFERROR((K53-L53)/K53,0)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="N53" s="21">
@@ -28964,7 +28961,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="63">
-        <f>IFERROR((S53-T53)/S53,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V53" s="51">
@@ -28996,7 +28993,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD53" s="56">
@@ -29028,7 +29025,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL53" s="60">
@@ -29060,7 +29057,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AT53" s="68">
@@ -29092,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="BA53" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BB53" s="74">
@@ -29124,7 +29121,7 @@
         <v>0</v>
       </c>
       <c r="BI53" s="61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BJ53" s="78">
@@ -29148,7 +29145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:66">
+    <row r="54" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C54" s="18" t="str">
         <v>SP14</v>
       </c>
@@ -29161,7 +29158,7 @@
         <v>0.25</v>
       </c>
       <c r="F54" s="61">
-        <f>IFERROR((D54-E54)/D54,0)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="G54" s="48">
@@ -29189,7 +29186,7 @@
         <v>0.25</v>
       </c>
       <c r="M54" s="64">
-        <f>IFERROR((K54-L54)/K54,0)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="N54" s="21">
@@ -29221,7 +29218,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="63">
-        <f>IFERROR((S54-T54)/S54,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V54" s="51">
@@ -29253,7 +29250,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="61">
-        <f t="shared" ref="AC54" si="9">IFERROR((AA54-AB54)/AA54,0)</f>
+        <f t="shared" ref="AC54" si="12">IFERROR((AA54-AB54)/AA54,0)</f>
         <v>0</v>
       </c>
       <c r="AD54" s="56">
@@ -29285,7 +29282,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="61">
-        <f t="shared" ref="AK54" si="10">IFERROR((AI54-AJ54)/AI54,0)</f>
+        <f t="shared" ref="AK54" si="13">IFERROR((AI54-AJ54)/AI54,0)</f>
         <v>0</v>
       </c>
       <c r="AL54" s="60">
@@ -29317,7 +29314,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="61">
-        <f t="shared" ref="AS54" si="11">IFERROR((AQ54-AR54)/AQ54,0)</f>
+        <f t="shared" ref="AS54" si="14">IFERROR((AQ54-AR54)/AQ54,0)</f>
         <v>0</v>
       </c>
       <c r="AT54" s="68">
@@ -29349,7 +29346,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="61">
-        <f t="shared" ref="BA54" si="12">IFERROR((AY54-AZ54)/AY54,0)</f>
+        <f t="shared" ref="BA54" si="15">IFERROR((AY54-AZ54)/AY54,0)</f>
         <v>0</v>
       </c>
       <c r="BB54" s="74">
@@ -29381,7 +29378,7 @@
         <v>0</v>
       </c>
       <c r="BI54" s="61">
-        <f t="shared" ref="BI54" si="13">IFERROR((BG54-BH54)/BG54,0)</f>
+        <f t="shared" ref="BI54" si="16">IFERROR((BG54-BH54)/BG54,0)</f>
         <v>0</v>
       </c>
       <c r="BJ54" s="78">
@@ -29405,7 +29402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:66">
+    <row r="55" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C55" s="18" t="str">
         <v>SP15</v>
       </c>
@@ -29418,7 +29415,7 @@
         <v>2</v>
       </c>
       <c r="F55" s="61">
-        <f>IFERROR((D55-E55)/D55,0)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="G55" s="48">
@@ -29446,7 +29443,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="64">
-        <f>IFERROR((K55-L55)/K55,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N55" s="21">
@@ -29478,7 +29475,7 @@
         <v>2</v>
       </c>
       <c r="U55" s="63">
-        <f>IFERROR((S55-T55)/S55,0)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="V55" s="51">
@@ -29510,7 +29507,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="61">
-        <f t="shared" ref="AC55" si="14">IFERROR((AA55-AB55)/AA55,0)</f>
+        <f t="shared" ref="AC55" si="17">IFERROR((AA55-AB55)/AA55,0)</f>
         <v>0</v>
       </c>
       <c r="AD55" s="56">
@@ -29542,7 +29539,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="61">
-        <f t="shared" ref="AK55" si="15">IFERROR((AI55-AJ55)/AI55,0)</f>
+        <f t="shared" ref="AK55" si="18">IFERROR((AI55-AJ55)/AI55,0)</f>
         <v>0</v>
       </c>
       <c r="AL55" s="60">
@@ -29574,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="AS55" s="61">
-        <f t="shared" ref="AS55" si="16">IFERROR((AQ55-AR55)/AQ55,0)</f>
+        <f t="shared" ref="AS55" si="19">IFERROR((AQ55-AR55)/AQ55,0)</f>
         <v>0</v>
       </c>
       <c r="AT55" s="68">
@@ -29606,7 +29603,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="61">
-        <f t="shared" ref="BA55" si="17">IFERROR((AY55-AZ55)/AY55,0)</f>
+        <f t="shared" ref="BA55" si="20">IFERROR((AY55-AZ55)/AY55,0)</f>
         <v>0</v>
       </c>
       <c r="BB55" s="74">
@@ -29638,7 +29635,7 @@
         <v>0</v>
       </c>
       <c r="BI55" s="61">
-        <f t="shared" ref="BI55" si="18">IFERROR((BG55-BH55)/BG55,0)</f>
+        <f t="shared" ref="BI55" si="21">IFERROR((BG55-BH55)/BG55,0)</f>
         <v>0</v>
       </c>
       <c r="BJ55" s="78">
@@ -29662,7 +29659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:66" ht="15" customHeight="1">
+    <row r="56" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C56" s="18" t="str">
         <v>SP16</v>
       </c>
@@ -29675,7 +29672,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="61">
-        <f>IFERROR((D56-E56)/D56,0)</f>
+        <f t="shared" si="4"/>
         <v>0.23076923076923078</v>
       </c>
       <c r="G56" s="48">
@@ -29703,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="64">
-        <f>IFERROR((K56-L56)/K56,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N56" s="21">
@@ -29735,7 +29732,7 @@
         <v>1</v>
       </c>
       <c r="U56" s="63">
-        <f>IFERROR((S56-T56)/S56,0)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="V56" s="51">
@@ -29767,7 +29764,7 @@
         <v>4</v>
       </c>
       <c r="AC56" s="61">
-        <f t="shared" ref="AC56" si="19">IFERROR((AA56-AB56)/AA56,0)</f>
+        <f t="shared" ref="AC56" si="22">IFERROR((AA56-AB56)/AA56,0)</f>
         <v>0.2</v>
       </c>
       <c r="AD56" s="56">
@@ -29799,7 +29796,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="61">
-        <f t="shared" ref="AK56" si="20">IFERROR((AI56-AJ56)/AI56,0)</f>
+        <f t="shared" ref="AK56" si="23">IFERROR((AI56-AJ56)/AI56,0)</f>
         <v>0</v>
       </c>
       <c r="AL56" s="60">
@@ -29831,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="61">
-        <f t="shared" ref="AS56" si="21">IFERROR((AQ56-AR56)/AQ56,0)</f>
+        <f t="shared" ref="AS56" si="24">IFERROR((AQ56-AR56)/AQ56,0)</f>
         <v>0</v>
       </c>
       <c r="AT56" s="68">
@@ -29863,7 +29860,7 @@
         <v>5</v>
       </c>
       <c r="BA56" s="61">
-        <f t="shared" ref="BA56" si="22">IFERROR((AY56-AZ56)/AY56,0)</f>
+        <f t="shared" ref="BA56" si="25">IFERROR((AY56-AZ56)/AY56,0)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="BB56" s="74">
@@ -29895,7 +29892,7 @@
         <v>0</v>
       </c>
       <c r="BI56" s="61">
-        <f t="shared" ref="BI56" si="23">IFERROR((BG56-BH56)/BG56,0)</f>
+        <f t="shared" ref="BI56" si="26">IFERROR((BG56-BH56)/BG56,0)</f>
         <v>0</v>
       </c>
       <c r="BJ56" s="78">
@@ -29919,15 +29916,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:66" ht="15" customHeight="1">
+    <row r="57" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:66">
+    <row r="58" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C58" s="17"/>
     </row>
-    <row r="59" spans="3:66">
+    <row r="59" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C59" s="31"/>
       <c r="D59" s="31"/>
       <c r="E59" s="31"/>
@@ -29937,36 +29934,36 @@
       <c r="I59" s="31"/>
       <c r="J59" s="31"/>
     </row>
-    <row r="60" spans="3:66">
+    <row r="60" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C60" s="17"/>
       <c r="F60" s="40"/>
       <c r="G60" s="40"/>
     </row>
-    <row r="61" spans="3:66">
+    <row r="61" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C61" s="17"/>
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
     </row>
-    <row r="62" spans="3:66">
+    <row r="62" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C62" s="17"/>
       <c r="F62" s="40"/>
       <c r="G62" s="40"/>
     </row>
-    <row r="63" spans="3:66">
+    <row r="63" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C63" s="17"/>
       <c r="F63" s="40"/>
       <c r="G63" s="40"/>
     </row>
-    <row r="64" spans="3:66">
+    <row r="64" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C64" s="17"/>
     </row>
-    <row r="65" spans="3:10">
+    <row r="65" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C65" s="17"/>
     </row>
-    <row r="67" spans="3:10">
+    <row r="67" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C67" s="17"/>
     </row>
-    <row r="68" spans="3:10">
+    <row r="68" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
       <c r="E68" s="31"/>
@@ -29976,39 +29973,39 @@
       <c r="I68" s="31"/>
       <c r="J68" s="31"/>
     </row>
-    <row r="69" spans="3:10">
+    <row r="69" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C69" s="17"/>
       <c r="F69" s="40"/>
       <c r="G69" s="40"/>
     </row>
-    <row r="70" spans="3:10">
+    <row r="70" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C70" s="17"/>
       <c r="F70" s="40"/>
       <c r="G70" s="40"/>
     </row>
-    <row r="71" spans="3:10">
+    <row r="71" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C71" s="17"/>
       <c r="F71" s="40"/>
       <c r="G71" s="40"/>
     </row>
-    <row r="72" spans="3:10">
+    <row r="72" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C72" s="17"/>
       <c r="F72" s="40"/>
       <c r="G72" s="40"/>
     </row>
-    <row r="73" spans="3:10">
+    <row r="73" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C73" s="17"/>
       <c r="F73" s="40"/>
       <c r="G73" s="40"/>
     </row>
-    <row r="74" spans="3:10">
+    <row r="74" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C74" s="17"/>
     </row>
-    <row r="76" spans="3:10"/>
-    <row r="77" spans="3:10"/>
-    <row r="78" spans="3:10"/>
-    <row r="79" spans="3:10"/>
-    <row r="80" spans="3:10"/>
+    <row r="76" spans="3:10" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="3:10" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="3:10" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="3:10" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="3:10" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="AQ47:AX47"/>
@@ -30415,13 +30412,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="93.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="93.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="133" t="s">
         <v>192</v>
       </c>
@@ -30429,7 +30426,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="229.5">
+    <row r="2" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A2" s="134">
         <v>45566</v>
       </c>
@@ -30437,7 +30434,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="324.75" customHeight="1">
+    <row r="3" spans="1:2" ht="324.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="134">
         <v>45573</v>
       </c>
@@ -30445,7 +30442,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="244.5">
+    <row r="4" spans="1:2" ht="232" x14ac:dyDescent="0.35">
       <c r="A4" s="134">
         <v>45588</v>
       </c>
@@ -30453,7 +30450,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="244.5">
+    <row r="5" spans="1:2" ht="232" x14ac:dyDescent="0.35">
       <c r="A5" s="134">
         <v>45602</v>
       </c>
@@ -30668,6 +30665,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
@@ -30681,23 +30687,39 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2E4D65A-0514-4AD4-B252-FA4173BA5D89}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2E4D65A-0514-4AD4-B252-FA4173BA5D89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>